--- a/MainTop/15.07.2025 новые мужские/new_men.xlsx
+++ b/MainTop/15.07.2025 новые мужские/new_men.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CABB217-0122-43B1-91D9-D13E8A6ECAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865E424-93A7-4A0C-BEC6-7BEDC212CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -487,12 +496,13 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
